--- a/info/message2.xlsx
+++ b/info/message2.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6877C2F4-B4E7-9247-868C-826D0C9171BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C7EFE-2482-C64F-82FF-287194C3AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="5140" windowWidth="25820" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13460" yWindow="5120" windowWidth="24300" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>fixation</t>
   </si>
@@ -45,7 +42,37 @@
     <t>blank1</t>
   </si>
   <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>baseline_key</t>
+  </si>
+  <si>
     <t>fixation2</t>
+  </si>
+  <si>
+    <t>target1</t>
+  </si>
+  <si>
+    <t>t1_key</t>
+  </si>
+  <si>
+    <t>target2</t>
+  </si>
+  <si>
+    <t>t2_key</t>
+  </si>
+  <si>
+    <t>target3</t>
+  </si>
+  <si>
+    <t>t3_key</t>
+  </si>
+  <si>
+    <t>target4</t>
+  </si>
+  <si>
+    <t>t4_key</t>
   </si>
   <si>
     <t xml:space="preserve"> blank1</t>
@@ -58,6 +85,30 @@
     <t>blank1_g</t>
   </si>
   <si>
+    <t>target1_g</t>
+  </si>
+  <si>
+    <t>t1_key_g</t>
+  </si>
+  <si>
+    <t>target2_g</t>
+  </si>
+  <si>
+    <t>t2_key_g</t>
+  </si>
+  <si>
+    <t>target3_g</t>
+  </si>
+  <si>
+    <t>t3_key_g</t>
+  </si>
+  <si>
+    <t>target4_g</t>
+  </si>
+  <si>
+    <t>t4_key_g</t>
+  </si>
+  <si>
     <t>block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +122,26 @@
   </si>
   <si>
     <t>Etime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> blank1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank1_g_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,34 +513,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +557,11 @@
       <c r="D2" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -496,8 +574,11 @@
       <c r="D3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -507,12 +588,15 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -521,50 +605,368 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/info/message2.xlsx
+++ b/info/message2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C7EFE-2482-C64F-82FF-287194C3AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C564BCF-55CA-4430-8D6D-DF72ACEF4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="5120" windowWidth="24300" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,6 @@
     <t>t4_key_g</t>
   </si>
   <si>
-    <t>block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +138,10 @@
   </si>
   <si>
     <t>blank1_g_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,35 +516,35 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,10 +558,10 @@
         <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -575,10 +575,10 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -592,10 +592,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.25" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,10 +626,10 @@
         <v>500</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -643,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -677,10 +677,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -694,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -711,10 +711,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -728,10 +728,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -745,10 +745,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -762,12 +762,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -779,10 +779,10 @@
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -796,10 +796,10 @@
         <v>500</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -813,10 +813,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -830,10 +830,10 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -847,10 +847,10 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -864,10 +864,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -881,10 +881,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -898,10 +898,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -915,10 +915,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -932,10 +932,10 @@
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -949,12 +949,12 @@
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -966,7 +966,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
